--- a/Word/9.ProjectTestReport.xlsx
+++ b/Word/9.ProjectTestReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Desktop\KLTN\HT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FD78AD-31C2-4422-BA2C-6C3466EEA4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E570233-F8B3-4903-81DF-92009135B716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestReportSprint1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
   <si>
     <t>Functions</t>
   </si>
@@ -181,9 +181,6 @@
     <t>UI/UX Programming</t>
   </si>
   <si>
-    <t>Networking</t>
-  </si>
-  <si>
     <t>Sound Effects</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
   </si>
   <si>
     <t>Kiểm tra chức năng các nút ,thao tác của người chơi</t>
-  </si>
-  <si>
-    <t>Kiểm tra kết nối và động bộ gameplay</t>
   </si>
   <si>
     <t xml:space="preserve">Kiểm tra âm thanh bắn </t>
@@ -584,28 +578,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -631,6 +604,27 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -948,7 +942,7 @@
   <dimension ref="B3:AA1001"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -965,15 +959,15 @@
   <sheetData>
     <row r="3" spans="2:27" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:27" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1054,10 +1048,10 @@
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1083,7 +1077,7 @@
       <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="2:27" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1117,7 +1111,7 @@
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="2:27" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="19"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="9" t="s">
         <v>11</v>
       </c>
@@ -1149,11 +1143,11 @@
       <c r="AA9" s="2"/>
     </row>
     <row r="10" spans="2:27" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="19"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="26">
         <v>186</v>
       </c>
       <c r="E10" s="3"/>
@@ -1181,7 +1175,7 @@
       <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="2:27" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="34" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1215,7 +1209,7 @@
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="2:27" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="19"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
@@ -1247,7 +1241,7 @@
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="2:27" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="19"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="6" t="s">
         <v>16</v>
       </c>
@@ -1279,11 +1273,11 @@
       <c r="AA13" s="2"/>
     </row>
     <row r="14" spans="2:27" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="19"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="26">
         <v>186</v>
       </c>
       <c r="E14" s="3"/>
@@ -1311,11 +1305,11 @@
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="2:27" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="33">
+      <c r="C15" s="35"/>
+      <c r="D15" s="26">
         <v>186</v>
       </c>
       <c r="E15" s="3"/>
@@ -1693,25 +1687,25 @@
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="2:27" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="22">
         <v>1</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="22">
         <v>1</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="23">
         <v>0</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="21">
         <v>1</v>
       </c>
-      <c r="H25" s="28"/>
+      <c r="H25" s="21"/>
       <c r="I25" s="3"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -1773,12 +1767,12 @@
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="2:27" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="31"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="24"/>
       <c r="H27" s="13"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -29091,10 +29085,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:Z998"/>
+  <dimension ref="A3:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -29110,15 +29104,15 @@
   <sheetData>
     <row r="3" spans="1:26" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:26" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -29199,10 +29193,10 @@
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -29228,7 +29222,7 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -29262,7 +29256,7 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
@@ -29294,11 +29288,11 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="27">
         <v>173</v>
       </c>
       <c r="D10" s="3"/>
@@ -29326,7 +29320,7 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -29360,7 +29354,7 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
@@ -29392,7 +29386,7 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
@@ -29424,11 +29418,11 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="28">
         <v>173</v>
       </c>
       <c r="D14" s="3"/>
@@ -29456,11 +29450,11 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="35">
+      <c r="B15" s="35"/>
+      <c r="C15" s="28">
         <v>173</v>
       </c>
       <c r="D15" s="3"/>
@@ -29558,11 +29552,11 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="15">
         <v>1</v>
@@ -29598,11 +29592,11 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="25" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="15">
         <v>1</v>
@@ -29638,11 +29632,11 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="25" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="15">
         <v>1</v>
@@ -29678,11 +29672,11 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="25" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="15">
         <v>1</v>
@@ -29718,11 +29712,11 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="15">
         <v>1</v>
@@ -29758,11 +29752,11 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="25" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="15">
         <v>1</v>
@@ -29798,11 +29792,11 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="25" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="15">
         <v>1</v>
@@ -29838,7 +29832,7 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -29877,12 +29871,12 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="32" t="s">
-        <v>54</v>
+    <row r="26" spans="1:26" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="15">
         <v>1</v>
@@ -29917,27 +29911,10 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="15">
-        <v>1</v>
-      </c>
-      <c r="D27" s="15">
-        <v>1</v>
-      </c>
-      <c r="E27" s="11">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6">
-        <v>2</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="3"/>
+    <row r="27" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="24"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -29958,8 +29935,23 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F28" s="31"/>
-      <c r="G28" s="13"/>
+      <c r="A28" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -29980,22 +29972,12 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>5</v>
-      </c>
+    <row r="29" spans="1:26" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="16"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="3"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -30019,9 +30001,15 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="16"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="A30" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0</v>
+      </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="3"/>
@@ -30046,15 +30034,13 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="17" t="s">
-        <v>25</v>
-      </c>
+    <row r="31" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="17"/>
       <c r="B31" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C31" s="11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -30080,10 +30066,10 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C32" s="11">
         <v>9</v>
@@ -30113,16 +30099,12 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="11">
-        <v>9</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="3"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -30145,11 +30127,11 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -57136,34 +57118,6 @@
       <c r="Y997" s="2"/>
       <c r="Z997" s="2"/>
     </row>
-    <row r="998" spans="1:26" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A998" s="2"/>
-      <c r="B998" s="2"/>
-      <c r="C998" s="2"/>
-      <c r="D998" s="2"/>
-      <c r="E998" s="2"/>
-      <c r="F998" s="2"/>
-      <c r="G998" s="2"/>
-      <c r="H998" s="2"/>
-      <c r="I998" s="2"/>
-      <c r="J998" s="2"/>
-      <c r="K998" s="2"/>
-      <c r="L998" s="2"/>
-      <c r="M998" s="2"/>
-      <c r="N998" s="2"/>
-      <c r="O998" s="2"/>
-      <c r="P998" s="2"/>
-      <c r="Q998" s="2"/>
-      <c r="R998" s="2"/>
-      <c r="S998" s="2"/>
-      <c r="T998" s="2"/>
-      <c r="U998" s="2"/>
-      <c r="V998" s="2"/>
-      <c r="W998" s="2"/>
-      <c r="X998" s="2"/>
-      <c r="Y998" s="2"/>
-      <c r="Z998" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A4:G4"/>
